--- a/Table/client/lua/exe/temp/X 仙魂副本技能表.xlsx
+++ b/Table/client/lua/exe/temp/X 仙魂副本技能表.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E098B-952F-4CB5-A4CF-C07B9A0911A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,47 +131,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_hun_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_hun_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊強化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守衛攻擊強化，增加守衛20%的攻擊力，持續15秒，可使用5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊眩暈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守衛攻擊眩暈，守衛攻擊幾率觸發眩暈效果，持續15秒，可使用2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>技能说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수비 공격 강화, 수비의 공격 20% 증가, 15초 지속, 5회 사용 가능</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수비 공격 기절, 수비 공격 시 일정 확률로 기절 효과 발동, 15초 지속, 2회 사용 가능</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫攻击强化，增加守卫20%的攻击力，持续15秒，可使用5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫攻击眩晕，守卫攻击几率触发眩晕效果，持续15秒，可使用2次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_hun_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_hun_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 강화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 기절</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +225,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,12 +261,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4 4 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 4 4 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,8 +544,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -520,12 +554,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="55.75" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="8" width="55.75" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,16 +573,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -561,17 +595,23 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="I2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -584,14 +624,20 @@
       <c r="D3">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Table/client/lua/exe/temp/X 仙魂副本技能表.xlsx
+++ b/Table/client/lua/exe/temp/X 仙魂副本技能表.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E098B-952F-4CB5-A4CF-C07B9A0911A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>技能ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +126,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫攻击强化，增加守卫20%的攻击力，持续15秒，可使用5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫攻击眩晕，守卫攻击几率触发眩晕效果，持续15秒，可使用2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,53 +160,13 @@
   <si>
     <t>skill_hun_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊強化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守衛攻擊強化，增加守衛20%的攻擊力，持續15秒，可使用5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊眩暈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守衛攻擊眩暈，守衛攻擊幾率觸發眩暈效果，持續15秒，可使用2次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수비 공격 강화, 수비의 공격 20% 증가, 15초 지속, 5회 사용 가능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수비 공격 기절, 수비 공격 시 일정 확률로 기절 효과 발동, 15초 지속, 2회 사용 가능</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 강화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 기절</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,25 +204,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,13 +228,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4 4 2" xfId="1"/>
+    <cellStyle name="常规 4 4 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,8 +510,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -554,12 +520,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="8" width="55.75" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="55.75" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,16 +539,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -595,23 +561,17 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -624,20 +584,14 @@
       <c r="D3">
         <v>90</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
